--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H2">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N2">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q2">
-        <v>1265.563810076676</v>
+        <v>76.91627837154779</v>
       </c>
       <c r="R2">
-        <v>1265.563810076676</v>
+        <v>692.24650534393</v>
       </c>
       <c r="S2">
-        <v>0.1280087217700807</v>
+        <v>0.007188722835851655</v>
       </c>
       <c r="T2">
-        <v>0.1280087217700807</v>
+        <v>0.007188722835851652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H3">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q3">
-        <v>1377.707080640112</v>
+        <v>83.74751786910667</v>
       </c>
       <c r="R3">
-        <v>1377.707080640112</v>
+        <v>753.7276608219601</v>
       </c>
       <c r="S3">
-        <v>0.1393517426479233</v>
+        <v>0.007827181799454332</v>
       </c>
       <c r="T3">
-        <v>0.1393517426479233</v>
+        <v>0.007827181799454328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H4">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N4">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q4">
-        <v>2570.798062015665</v>
+        <v>159.4274314406178</v>
       </c>
       <c r="R4">
-        <v>2570.798062015665</v>
+        <v>1434.84688296556</v>
       </c>
       <c r="S4">
-        <v>0.2600300128902138</v>
+        <v>0.01490035193229384</v>
       </c>
       <c r="T4">
-        <v>0.2600300128902138</v>
+        <v>0.01490035193229383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H5">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N5">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q5">
-        <v>2606.63268084951</v>
+        <v>161.0466469056178</v>
       </c>
       <c r="R5">
-        <v>2606.63268084951</v>
+        <v>1449.41982215056</v>
       </c>
       <c r="S5">
-        <v>0.2636545980083364</v>
+        <v>0.01505168649288167</v>
       </c>
       <c r="T5">
-        <v>0.2636545980083364</v>
+        <v>0.01505168649288167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H6">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N6">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q6">
-        <v>129.0638620169566</v>
+        <v>7.905295305556668</v>
       </c>
       <c r="R6">
-        <v>129.0638620169566</v>
+        <v>71.14765775001001</v>
       </c>
       <c r="S6">
-        <v>0.01305449782298984</v>
+        <v>0.0007388419992539289</v>
       </c>
       <c r="T6">
-        <v>0.01305449782298984</v>
+        <v>0.0007388419992539287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H7">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N7">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q7">
-        <v>123.4585745859961</v>
+        <v>1280.270454859465</v>
       </c>
       <c r="R7">
-        <v>123.4585745859961</v>
+        <v>11522.43409373518</v>
       </c>
       <c r="S7">
-        <v>0.01248753654179795</v>
+        <v>0.1196561982686737</v>
       </c>
       <c r="T7">
-        <v>0.01248753654179795</v>
+        <v>0.1196561982686737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H8">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q8">
-        <v>134.39840094871</v>
+        <v>1393.976347603605</v>
       </c>
       <c r="R8">
-        <v>134.39840094871</v>
+        <v>12545.78712843245</v>
       </c>
       <c r="S8">
-        <v>0.01359407354761894</v>
+        <v>0.130283339428471</v>
       </c>
       <c r="T8">
-        <v>0.01359407354761894</v>
+        <v>0.1302833394284709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H9">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N9">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q9">
-        <v>250.7870893255598</v>
+        <v>2653.667526418681</v>
       </c>
       <c r="R9">
-        <v>250.7870893255598</v>
+        <v>23883.00773776813</v>
       </c>
       <c r="S9">
-        <v>0.02536650818030185</v>
+        <v>0.2480161644557748</v>
       </c>
       <c r="T9">
-        <v>0.02536650818030185</v>
+        <v>0.2480161644557746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H10">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N10">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q10">
-        <v>254.2828363806142</v>
+        <v>2680.619346810681</v>
       </c>
       <c r="R10">
-        <v>254.2828363806142</v>
+        <v>24125.57412129613</v>
       </c>
       <c r="S10">
-        <v>0.02572009454914874</v>
+        <v>0.2505351262519218</v>
       </c>
       <c r="T10">
-        <v>0.02572009454914874</v>
+        <v>0.2505351262519217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H11">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N11">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q11">
-        <v>12.59046782809929</v>
+        <v>131.5835377233653</v>
       </c>
       <c r="R11">
-        <v>12.59046782809929</v>
+        <v>1184.251839510288</v>
       </c>
       <c r="S11">
-        <v>0.001273495402072748</v>
+        <v>0.0122980154848991</v>
       </c>
       <c r="T11">
-        <v>0.001273495402072748</v>
+        <v>0.01229801548489909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H12">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N12">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q12">
-        <v>90.21256959674039</v>
+        <v>131.9930732192918</v>
       </c>
       <c r="R12">
-        <v>90.21256959674039</v>
+        <v>1187.937658973626</v>
       </c>
       <c r="S12">
-        <v>0.009124783459929639</v>
+        <v>0.01233629135099648</v>
       </c>
       <c r="T12">
-        <v>0.009124783459929639</v>
+        <v>0.01233629135099647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H13">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q13">
-        <v>98.20642381409284</v>
+        <v>143.7159011338747</v>
       </c>
       <c r="R13">
-        <v>98.20642381409284</v>
+        <v>1293.443110204872</v>
       </c>
       <c r="S13">
-        <v>0.009933342500755608</v>
+        <v>0.01343192627398691</v>
       </c>
       <c r="T13">
-        <v>0.009933342500755608</v>
+        <v>0.0134319262739869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H14">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N14">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q14">
-        <v>183.2529480079732</v>
+        <v>273.5872961722658</v>
       </c>
       <c r="R14">
-        <v>183.2529480079732</v>
+        <v>2462.285665550392</v>
       </c>
       <c r="S14">
-        <v>0.01853559294942108</v>
+        <v>0.02556992206632814</v>
       </c>
       <c r="T14">
-        <v>0.01853559294942108</v>
+        <v>0.02556992206632812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H15">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N15">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q15">
-        <v>185.8073297149888</v>
+        <v>276.3659696852658</v>
       </c>
       <c r="R15">
-        <v>185.8073297149888</v>
+        <v>2487.293727167392</v>
       </c>
       <c r="S15">
-        <v>0.01879396248766518</v>
+        <v>0.0258296214974393</v>
       </c>
       <c r="T15">
-        <v>0.01879396248766518</v>
+        <v>0.0258296214974393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H16">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N16">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O16">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P16">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q16">
-        <v>9.199996509005251</v>
+        <v>13.56597386376467</v>
       </c>
       <c r="R16">
-        <v>9.199996509005251</v>
+        <v>122.093764773882</v>
       </c>
       <c r="S16">
-        <v>0.0009305574195706624</v>
+        <v>0.00126789839770883</v>
       </c>
       <c r="T16">
-        <v>0.0009305574195706624</v>
+        <v>0.00126789839770883</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H17">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N17">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O17">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P17">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q17">
-        <v>94.65446485242803</v>
+        <v>91.64754183019744</v>
       </c>
       <c r="R17">
-        <v>94.65446485242803</v>
+        <v>824.827876471777</v>
       </c>
       <c r="S17">
-        <v>0.009574070433363804</v>
+        <v>0.008565531130119245</v>
       </c>
       <c r="T17">
-        <v>0.009574070433363804</v>
+        <v>0.008565531130119241</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H18">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N18">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O18">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P18">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q18">
-        <v>103.0419212394276</v>
+        <v>99.78712321478265</v>
       </c>
       <c r="R18">
-        <v>103.0419212394276</v>
+        <v>898.0841089330439</v>
       </c>
       <c r="S18">
-        <v>0.01042244138270144</v>
+        <v>0.009326269894558549</v>
       </c>
       <c r="T18">
-        <v>0.01042244138270144</v>
+        <v>0.009326269894558543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H19">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N19">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O19">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P19">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q19">
-        <v>192.2759744441562</v>
+        <v>189.9615075141204</v>
       </c>
       <c r="R19">
-        <v>192.2759744441562</v>
+        <v>1709.653567627084</v>
       </c>
       <c r="S19">
-        <v>0.01944825027368785</v>
+        <v>0.01775411728064975</v>
       </c>
       <c r="T19">
-        <v>0.01944825027368785</v>
+        <v>0.01775411728064974</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H20">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N20">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O20">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P20">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q20">
-        <v>194.9561290455293</v>
+        <v>191.8908405526204</v>
       </c>
       <c r="R20">
-        <v>194.9561290455293</v>
+        <v>1727.017564973584</v>
       </c>
       <c r="S20">
-        <v>0.0197193414363272</v>
+        <v>0.01793443594355789</v>
       </c>
       <c r="T20">
-        <v>0.0197193414363272</v>
+        <v>0.01793443594355789</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H21">
+        <v>8.227433</v>
+      </c>
+      <c r="I21">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J21">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.434611</v>
+      </c>
+      <c r="N21">
+        <v>10.303833</v>
+      </c>
+      <c r="O21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q21">
+        <v>9.419343961187666</v>
+      </c>
+      <c r="R21">
+        <v>84.77409565068901</v>
+      </c>
+      <c r="S21">
+        <v>0.0008803474955644629</v>
+      </c>
+      <c r="T21">
+        <v>0.0008803474955644626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H22">
+        <v>9.156113</v>
+      </c>
+      <c r="I22">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J22">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.41778966666667</v>
+      </c>
+      <c r="N22">
+        <v>100.253369</v>
+      </c>
+      <c r="O22">
+        <v>0.1572791178915017</v>
+      </c>
+      <c r="P22">
+        <v>0.1572791178915016</v>
+      </c>
+      <c r="Q22">
+        <v>101.9923527994108</v>
+      </c>
+      <c r="R22">
+        <v>917.9311751946971</v>
+      </c>
+      <c r="S22">
+        <v>0.009532374305860592</v>
+      </c>
+      <c r="T22">
+        <v>0.009532374305860585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.156113</v>
+      </c>
+      <c r="I23">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J23">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>36.385756</v>
+      </c>
+      <c r="N23">
+        <v>109.157268</v>
+      </c>
+      <c r="O23">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="P23">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="Q23">
+        <v>111.0506978421427</v>
+      </c>
+      <c r="R23">
+        <v>999.456280579284</v>
+      </c>
+      <c r="S23">
+        <v>0.01037898224428885</v>
+      </c>
+      <c r="T23">
+        <v>0.01037898224428885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H24">
+        <v>9.156113</v>
+      </c>
+      <c r="I24">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J24">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>69.26638266666667</v>
+      </c>
+      <c r="N24">
+        <v>207.799148</v>
+      </c>
+      <c r="O24">
+        <v>0.3259986873463135</v>
+      </c>
+      <c r="P24">
+        <v>0.3259986873463134</v>
+      </c>
+      <c r="Q24">
+        <v>211.4036089324138</v>
+      </c>
+      <c r="R24">
+        <v>1902.632480391724</v>
+      </c>
+      <c r="S24">
+        <v>0.01975813161126707</v>
+      </c>
+      <c r="T24">
+        <v>0.01975813161126706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="H21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="I21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="J21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="N21">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="O21">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="P21">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="Q21">
-        <v>9.652986829848189</v>
-      </c>
-      <c r="R21">
-        <v>9.652986829848189</v>
-      </c>
-      <c r="S21">
-        <v>0.0009763762960932219</v>
-      </c>
-      <c r="T21">
-        <v>0.0009763762960932219</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H25">
+        <v>9.156113</v>
+      </c>
+      <c r="I25">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J25">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>69.96988266666666</v>
+      </c>
+      <c r="N25">
+        <v>209.909648</v>
+      </c>
+      <c r="O25">
+        <v>0.3293096741153468</v>
+      </c>
+      <c r="P25">
+        <v>0.3293096741153467</v>
+      </c>
+      <c r="Q25">
+        <v>213.5507174309138</v>
+      </c>
+      <c r="R25">
+        <v>1921.956456878224</v>
+      </c>
+      <c r="S25">
+        <v>0.01995880392954615</v>
+      </c>
+      <c r="T25">
+        <v>0.01995880392954615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H26">
+        <v>9.156113</v>
+      </c>
+      <c r="I26">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J26">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.434611</v>
+      </c>
+      <c r="N26">
+        <v>10.303833</v>
+      </c>
+      <c r="O26">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P26">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q26">
+        <v>10.48256214234767</v>
+      </c>
+      <c r="R26">
+        <v>94.343059281129</v>
+      </c>
+      <c r="S26">
+        <v>0.0009797176286522446</v>
+      </c>
+      <c r="T26">
+        <v>0.0009797176286522442</v>
       </c>
     </row>
   </sheetData>
